--- a/Datasheets/DataForm_UAS_BodyCondition_2022_ASLC.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_ASLC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Flight #:</t>
   </si>
@@ -251,9 +251,6 @@
     <t>UAS Body Condition: 2022 Alaska Sea Life Center Work</t>
   </si>
   <si>
-    <t>Calibration/Equipment Test       Field Data Collection       Scouting</t>
-  </si>
-  <si>
     <t>Target Identifier*</t>
   </si>
   <si>
@@ -289,6 +286,26 @@
       <t># #</t>
     </r>
   </si>
+  <si>
+    <t>Calibration/Equipment Test       Captive Seal</t>
+  </si>
+  <si>
+    <t>Data Recorder (initials): ___________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position # ____: </t>
+  </si>
+  <si>
+    <t>280      125     ascending/
+240      100    descending
+200        75
+175        50
+150</t>
+  </si>
+  <si>
+    <t>GPS time
+Exif time</t>
+  </si>
 </sst>
 </file>
 
@@ -357,19 +374,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Arial"/>
@@ -418,6 +422,18 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -442,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -608,13 +624,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,19 +756,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,38 +790,47 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -779,19 +847,34 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1197,7 +1280,9 @@
       <c r="E1" s="26"/>
       <c r="F1" s="15"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="24"/>
@@ -1207,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="11" t="s">
@@ -1226,8 +1311,8 @@
         <v>0</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="29" t="s">
-        <v>41</v>
+      <c r="C3" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1235,7 +1320,7 @@
       <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -1253,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1290,10 +1375,10 @@
       <c r="G6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -1302,7 +1387,10 @@
       <c r="B7" s="11"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="47"/>
+      <c r="E7" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="65"/>
       <c r="G7" s="21"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -1310,12 +1398,12 @@
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="47"/>
+      <c r="E8" s="46"/>
       <c r="G8" s="21"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -1327,46 +1415,46 @@
         <v>23</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="14"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1375,18 +1463,18 @@
         <v>8</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="G12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="58"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="21"/>
       <c r="K12" s="20"/>
     </row>
@@ -1395,13 +1483,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="31"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="G13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -1411,8 +1499,8 @@
         <v>19</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="20"/>
       <c r="G14" s="11" t="s">
         <v>18</v>
@@ -1434,15 +1522,15 @@
         <v>16</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
@@ -1484,221 +1572,240 @@
       <c r="J19" s="12"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" s="37" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:11" s="36" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="D20" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
+    </row>
+    <row r="21" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-    </row>
-    <row r="21" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="D21" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="59" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-    </row>
-    <row r="22" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+    </row>
+    <row r="23" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="59" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-    </row>
-    <row r="23" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="E23" s="52"/>
+      <c r="F23" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+    </row>
+    <row r="24" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="59" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="E24" s="52"/>
+      <c r="F24" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+    </row>
+    <row r="25" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="59" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="E25" s="52"/>
+      <c r="F25" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+    </row>
+    <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="59" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="E26" s="52"/>
+      <c r="F26" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="59" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="E27" s="52"/>
+      <c r="F27" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="59" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="E28" s="52"/>
+      <c r="F28" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+    </row>
+    <row r="29" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="59" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="F26:G26"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="F20:G20"/>
@@ -1712,6 +1819,23 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Datasheets/DataForm_UAS_BodyCondition_2022_ASLC.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_ASLC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Flight #:</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Data Collection Type:</t>
   </si>
   <si>
-    <t>Flight Start (UTC):</t>
-  </si>
-  <si>
-    <t>Flight End (UTC):</t>
-  </si>
-  <si>
     <t>YYYY-MM-DD HH:MM</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>***Double-check that the drone is set to collect in UTC before any data are collected***</t>
   </si>
   <si>
     <r>
@@ -305,6 +296,54 @@
   <si>
     <t>GPS time
 Exif time</t>
+  </si>
+  <si>
+    <r>
+      <t>aslc_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYYMMDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_fl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_lrf.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>***Double-check that the drone is set to collect in GMT before any data are collected***</t>
+  </si>
+  <si>
+    <t>Flight Start (GMT):</t>
+  </si>
+  <si>
+    <t>Flight End (GMT):</t>
   </si>
 </sst>
 </file>
@@ -676,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +868,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -868,14 +916,8 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1314,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1281,7 +1323,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="1"/>
       <c r="H1" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1293,7 +1335,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="23"/>
@@ -1312,7 +1354,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1327,7 +1369,7 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="22"/>
@@ -1338,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1346,7 +1388,7 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="22"/>
@@ -1357,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -1365,7 +1407,7 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="22"/>
@@ -1373,24 +1415,26 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="31"/>
+        <v>13</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="65"/>
+      <c r="E7" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="52"/>
       <c r="G7" s="21"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -1399,7 +1443,7 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1412,15 +1456,15 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
@@ -1428,17 +1472,17 @@
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
       <c r="G10" s="14"/>
       <c r="H10" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -1455,24 +1499,24 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="G12" s="11" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I12" s="50"/>
       <c r="J12" s="21"/>
@@ -1480,14 +1524,14 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="G13" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="20"/>
@@ -1496,14 +1540,14 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="20"/>
       <c r="G14" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -1519,7 +1563,7 @@
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="31"/>
@@ -1546,7 +1590,7 @@
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="23"/>
@@ -1577,235 +1621,252 @@
         <v>1</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+        <v>35</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="F20:G20"/>
@@ -1819,23 +1880,6 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Datasheets/DataForm_UAS_BodyCondition_2022_ASLC.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_ASLC.xlsx
@@ -287,13 +287,6 @@
     <t xml:space="preserve">Position # ____: </t>
   </si>
   <si>
-    <t>280      125     ascending/
-240      100    descending
-200        75
-175        50
-150</t>
-  </si>
-  <si>
     <t>GPS time
 Exif time</t>
   </si>
@@ -344,6 +337,13 @@
   </si>
   <si>
     <t>Flight End (GMT):</t>
+  </si>
+  <si>
+    <t>50        175     ascending/
+75        200    descending
+100      240
+125      280
+150</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -709,13 +709,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,9 +929,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,14 +968,17 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1417,8 +1478,8 @@
       <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="68" t="s">
-        <v>43</v>
+      <c r="H6" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -1432,7 +1493,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="21"/>
@@ -1504,7 +1565,7 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="48" t="s">
@@ -1513,7 +1574,7 @@
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="G12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>8</v>
@@ -1590,7 +1651,7 @@
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="23"/>
@@ -1626,20 +1687,20 @@
       <c r="C20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="59" t="s">
+      <c r="E20" s="62"/>
+      <c r="F20" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="56" t="s">
+      <c r="G20" s="62"/>
+      <c r="H20" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
     </row>
     <row r="21" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
@@ -1649,20 +1710,20 @@
       <c r="C21" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="69"/>
+      <c r="H21" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
@@ -1672,20 +1733,20 @@
       <c r="C22" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67" t="s">
+      <c r="E22" s="56"/>
+      <c r="F22" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="71"/>
+      <c r="H22" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
@@ -1695,20 +1756,20 @@
       <c r="C23" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="71"/>
+      <c r="H23" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
@@ -1718,20 +1779,20 @@
       <c r="C24" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67" t="s">
+      <c r="E24" s="56"/>
+      <c r="F24" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="71"/>
+      <c r="H24" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
@@ -1741,22 +1802,22 @@
       <c r="C25" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67" t="s">
+      <c r="E25" s="56"/>
+      <c r="F25" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>2</v>
       </c>
@@ -1764,22 +1825,22 @@
       <c r="C26" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67" t="s">
+      <c r="E26" s="56"/>
+      <c r="F26" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="71"/>
+      <c r="H26" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-    </row>
-    <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>2</v>
       </c>
@@ -1787,22 +1848,22 @@
       <c r="C27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67" t="s">
+      <c r="E27" s="56"/>
+      <c r="F27" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="71"/>
+      <c r="H27" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-    </row>
-    <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
         <v>2</v>
       </c>
@@ -1810,22 +1871,22 @@
       <c r="C28" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67" t="s">
+      <c r="E28" s="56"/>
+      <c r="F28" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="64"/>
+      <c r="H28" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" spans="1:11" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
         <v>2</v>
       </c>
@@ -1833,40 +1894,23 @@
       <c r="C29" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67" t="s">
+      <c r="E29" s="56"/>
+      <c r="F29" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="71"/>
+      <c r="H29" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="F26:G26"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="F20:G20"/>
@@ -1880,6 +1924,23 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
